--- a/output/OUTPUT4_A07.xlsx
+++ b/output/OUTPUT4_A07.xlsx
@@ -237,16 +237,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,11 +655,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C33" sqref="C33"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -922,98 +922,122 @@
     <row r="3">
       <c r="A3" s="23" t="n"/>
       <c r="B3" s="10" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="25" t="inlineStr">
+      <c r="C3" s="25" t="inlineStr">
+        <is>
+          <t>B2000002-</t>
+        </is>
+      </c>
+      <c r="D3" s="25" t="inlineStr">
+        <is>
+          <t>B1008527-</t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="inlineStr">
         <is>
           <t>B2000595-</t>
         </is>
       </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="26" t="inlineStr">
+      <c r="F3" s="27" t="inlineStr">
+        <is>
+          <t>B2012254-</t>
+        </is>
+      </c>
+      <c r="G3" s="27" t="inlineStr">
         <is>
           <t>B1008371-</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H3" s="27" t="inlineStr">
         <is>
           <t>B2011340-</t>
         </is>
       </c>
-      <c r="I3" s="26" t="inlineStr">
+      <c r="I3" s="27" t="inlineStr">
         <is>
           <t>B2011392-</t>
         </is>
       </c>
-      <c r="J3" s="7" t="n"/>
-      <c r="K3" s="7" t="n"/>
-      <c r="L3" s="7" t="n"/>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="26" t="inlineStr">
+      <c r="J3" s="27" t="inlineStr">
+        <is>
+          <t>B2012264-</t>
+        </is>
+      </c>
+      <c r="K3" s="27" t="inlineStr">
+        <is>
+          <t>B2012262-</t>
+        </is>
+      </c>
+      <c r="L3" s="27" t="inlineStr">
+        <is>
+          <t>B2012256-</t>
+        </is>
+      </c>
+      <c r="M3" s="27" t="inlineStr">
+        <is>
+          <t>B1006698-</t>
+        </is>
+      </c>
+      <c r="N3" s="27" t="inlineStr">
         <is>
           <t>T2002343-</t>
         </is>
       </c>
-      <c r="O3" s="26" t="inlineStr">
+      <c r="O3" s="27" t="inlineStr">
         <is>
           <t>B2010813-</t>
         </is>
       </c>
-      <c r="P3" s="26" t="inlineStr">
+      <c r="P3" s="27" t="inlineStr">
         <is>
           <t>B1005878-</t>
         </is>
       </c>
-      <c r="Q3" s="26" t="inlineStr">
+      <c r="Q3" s="27" t="inlineStr">
         <is>
           <t>B2000022-</t>
         </is>
       </c>
-      <c r="R3" s="26" t="inlineStr">
+      <c r="R3" s="27" t="inlineStr">
         <is>
           <t>B1006328-</t>
         </is>
       </c>
-      <c r="S3" s="26" t="inlineStr">
+      <c r="S3" s="27" t="inlineStr">
         <is>
           <t>B1009179-</t>
         </is>
       </c>
-      <c r="T3" s="7" t="n"/>
-      <c r="U3" s="26" t="inlineStr">
+      <c r="T3" s="27" t="inlineStr">
+        <is>
+          <t>B2012255-</t>
+        </is>
+      </c>
+      <c r="U3" s="27" t="inlineStr">
         <is>
           <t>B1006115-</t>
         </is>
       </c>
-      <c r="V3" s="26" t="inlineStr">
+      <c r="V3" s="27" t="inlineStr">
         <is>
           <t>B1006326-</t>
         </is>
       </c>
-      <c r="W3" s="26" t="inlineStr">
-        <is>
-          <t>b2000157-</t>
-        </is>
-      </c>
+      <c r="W3" s="7" t="n"/>
       <c r="X3" s="7" t="n"/>
       <c r="Y3" s="7" t="n"/>
-      <c r="Z3" s="26" t="inlineStr">
+      <c r="Z3" s="27" t="inlineStr">
         <is>
           <t>b2011343-</t>
         </is>
       </c>
-      <c r="AA3" s="26" t="inlineStr">
-        <is>
-          <t>B2000643-</t>
-        </is>
-      </c>
-      <c r="AB3" s="26" t="inlineStr">
+      <c r="AA3" s="7" t="n"/>
+      <c r="AB3" s="27" t="inlineStr">
         <is>
           <t>M1017668-</t>
         </is>
       </c>
       <c r="AC3" s="7" t="n"/>
-      <c r="AD3" s="26" t="inlineStr">
+      <c r="AD3" s="27" t="inlineStr">
         <is>
           <t>M1012893-</t>
         </is>
@@ -1170,134 +1194,142 @@
     <row r="5">
       <c r="A5" s="23" t="n"/>
       <c r="B5" s="10" t="n"/>
-      <c r="C5" s="27" t="inlineStr">
-        <is>
-          <t>B2000026-</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="25" t="inlineStr">
+      <c r="C5" s="25" t="inlineStr">
+        <is>
+          <t>P1226452-</t>
+        </is>
+      </c>
+      <c r="D5" s="25" t="inlineStr">
+        <is>
+          <t>B2011430-</t>
+        </is>
+      </c>
+      <c r="E5" s="26" t="inlineStr">
         <is>
           <t>B2009946-</t>
         </is>
       </c>
-      <c r="F5" s="26" t="inlineStr">
-        <is>
-          <t>B2011172-</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="F5" s="27" t="inlineStr">
+        <is>
+          <t>T2003375-</t>
+        </is>
+      </c>
+      <c r="G5" s="27" t="inlineStr">
+        <is>
+          <t>T1001001-</t>
+        </is>
+      </c>
+      <c r="H5" s="27" t="inlineStr">
         <is>
           <t>B2010802-</t>
         </is>
       </c>
-      <c r="I5" s="26" t="inlineStr">
+      <c r="I5" s="27" t="inlineStr">
         <is>
           <t>B2010815-</t>
         </is>
       </c>
-      <c r="J5" s="26" t="inlineStr">
-        <is>
-          <t>B1005884-</t>
-        </is>
-      </c>
-      <c r="K5" s="26" t="inlineStr">
+      <c r="J5" s="27" t="inlineStr">
+        <is>
+          <t>t1000390-</t>
+        </is>
+      </c>
+      <c r="K5" s="27" t="inlineStr">
         <is>
           <t>B2010264-</t>
         </is>
       </c>
-      <c r="L5" s="26" t="inlineStr">
+      <c r="L5" s="27" t="inlineStr">
         <is>
           <t>B1005480-</t>
         </is>
       </c>
-      <c r="M5" s="26" t="inlineStr">
+      <c r="M5" s="27" t="inlineStr">
         <is>
           <t>B1007963-</t>
         </is>
       </c>
-      <c r="N5" s="26" t="inlineStr">
+      <c r="N5" s="27" t="inlineStr">
         <is>
           <t>B2010822-</t>
         </is>
       </c>
-      <c r="O5" s="26" t="inlineStr">
+      <c r="O5" s="27" t="inlineStr">
         <is>
           <t>B1000261-</t>
         </is>
       </c>
-      <c r="P5" s="26" t="inlineStr">
+      <c r="P5" s="27" t="inlineStr">
         <is>
           <t>B2000662-</t>
         </is>
       </c>
-      <c r="Q5" s="26" t="inlineStr">
+      <c r="Q5" s="27" t="inlineStr">
         <is>
           <t>B1006401-</t>
         </is>
       </c>
-      <c r="R5" s="26" t="inlineStr">
+      <c r="R5" s="27" t="inlineStr">
         <is>
           <t>B1006372-</t>
         </is>
       </c>
-      <c r="S5" s="26" t="inlineStr">
+      <c r="S5" s="27" t="inlineStr">
         <is>
           <t>B2010362-</t>
         </is>
       </c>
-      <c r="T5" s="26" t="inlineStr">
-        <is>
-          <t>B1008939-</t>
-        </is>
-      </c>
-      <c r="U5" s="26" t="inlineStr">
+      <c r="T5" s="27" t="inlineStr">
+        <is>
+          <t>P1227622-</t>
+        </is>
+      </c>
+      <c r="U5" s="27" t="inlineStr">
         <is>
           <t>B2009985-</t>
         </is>
       </c>
-      <c r="V5" s="26" t="inlineStr">
+      <c r="V5" s="27" t="inlineStr">
         <is>
           <t>B1006393-</t>
         </is>
       </c>
-      <c r="W5" s="26" t="inlineStr">
+      <c r="W5" s="27" t="inlineStr">
         <is>
           <t>B2000534-</t>
         </is>
       </c>
-      <c r="X5" s="26" t="inlineStr">
-        <is>
-          <t>b2000830-</t>
-        </is>
-      </c>
-      <c r="Y5" s="26" t="inlineStr">
+      <c r="X5" s="27" t="inlineStr">
+        <is>
+          <t>B1008906-</t>
+        </is>
+      </c>
+      <c r="Y5" s="27" t="inlineStr">
         <is>
           <t>B1009180-</t>
         </is>
       </c>
-      <c r="Z5" s="26" t="inlineStr">
+      <c r="Z5" s="27" t="inlineStr">
         <is>
           <t>B2010004-</t>
         </is>
       </c>
-      <c r="AA5" s="26" t="inlineStr">
+      <c r="AA5" s="27" t="inlineStr">
         <is>
           <t>t2000225-</t>
         </is>
       </c>
-      <c r="AB5" s="26" t="inlineStr">
+      <c r="AB5" s="27" t="inlineStr">
         <is>
           <t>B2000713-</t>
         </is>
       </c>
-      <c r="AC5" s="26" t="inlineStr">
+      <c r="AC5" s="27" t="inlineStr">
         <is>
           <t>T2001076-</t>
         </is>
       </c>
-      <c r="AD5" s="26" t="inlineStr">
+      <c r="AD5" s="27" t="inlineStr">
         <is>
           <t>B2011154-</t>
         </is>
@@ -1454,136 +1486,140 @@
     <row r="7">
       <c r="A7" s="23" t="n"/>
       <c r="B7" s="10" t="n"/>
-      <c r="C7" s="27" t="inlineStr">
-        <is>
-          <t>B2010095-</t>
-        </is>
-      </c>
-      <c r="D7" s="27" t="inlineStr">
-        <is>
-          <t>B2010854-</t>
-        </is>
-      </c>
-      <c r="E7" s="25" t="inlineStr">
-        <is>
-          <t>B2000166-</t>
-        </is>
-      </c>
-      <c r="F7" s="26" t="inlineStr">
+      <c r="C7" s="25" t="inlineStr">
+        <is>
+          <t>T1000755-</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="inlineStr">
+        <is>
+          <t>B2011524-</t>
+        </is>
+      </c>
+      <c r="E7" s="26" t="inlineStr">
+        <is>
+          <t>B2012277-</t>
+        </is>
+      </c>
+      <c r="F7" s="27" t="inlineStr">
         <is>
           <t>B2010727-</t>
         </is>
       </c>
-      <c r="G7" s="26" t="inlineStr">
-        <is>
-          <t>B1008877-</t>
-        </is>
-      </c>
-      <c r="H7" s="26" t="inlineStr">
+      <c r="G7" s="27" t="inlineStr">
+        <is>
+          <t>B2011172-</t>
+        </is>
+      </c>
+      <c r="H7" s="27" t="inlineStr">
         <is>
           <t>B2010801-</t>
         </is>
       </c>
-      <c r="I7" s="26" t="inlineStr">
+      <c r="I7" s="27" t="inlineStr">
         <is>
           <t>B2010112-</t>
         </is>
       </c>
-      <c r="J7" s="26" t="inlineStr">
-        <is>
-          <t>B2011124-</t>
-        </is>
-      </c>
-      <c r="K7" s="26" t="inlineStr">
-        <is>
-          <t>t2001877-</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="n"/>
-      <c r="M7" s="26" t="inlineStr">
+      <c r="J7" s="27" t="inlineStr">
+        <is>
+          <t>B2000675-</t>
+        </is>
+      </c>
+      <c r="K7" s="27" t="inlineStr">
+        <is>
+          <t>X1000184-</t>
+        </is>
+      </c>
+      <c r="L7" s="27" t="inlineStr">
+        <is>
+          <t>T2001726-</t>
+        </is>
+      </c>
+      <c r="M7" s="27" t="inlineStr">
         <is>
           <t>t1000671-</t>
         </is>
       </c>
-      <c r="N7" s="26" t="inlineStr">
+      <c r="N7" s="27" t="inlineStr">
         <is>
           <t>B2010067-</t>
         </is>
       </c>
-      <c r="O7" s="26" t="inlineStr">
+      <c r="O7" s="27" t="inlineStr">
         <is>
           <t>B2010292-</t>
         </is>
       </c>
-      <c r="P7" s="7" t="n"/>
-      <c r="Q7" s="26" t="inlineStr">
-        <is>
-          <t>B1006789-</t>
-        </is>
-      </c>
-      <c r="R7" s="26" t="inlineStr">
-        <is>
-          <t>B1007173-</t>
-        </is>
-      </c>
-      <c r="S7" s="26" t="inlineStr">
+      <c r="P7" s="27" t="inlineStr">
+        <is>
+          <t>B1006747-</t>
+        </is>
+      </c>
+      <c r="Q7" s="27" t="inlineStr">
+        <is>
+          <t>T1000734-</t>
+        </is>
+      </c>
+      <c r="R7" s="27" t="inlineStr">
+        <is>
+          <t>X1000220-</t>
+        </is>
+      </c>
+      <c r="S7" s="27" t="inlineStr">
         <is>
           <t>B1008955-</t>
         </is>
       </c>
-      <c r="T7" s="26" t="inlineStr">
+      <c r="T7" s="27" t="inlineStr">
         <is>
           <t>B2010446-</t>
         </is>
       </c>
-      <c r="U7" s="26" t="inlineStr">
-        <is>
-          <t>B2000372-</t>
-        </is>
-      </c>
-      <c r="V7" s="26" t="inlineStr">
-        <is>
-          <t>T2000191-</t>
-        </is>
-      </c>
-      <c r="W7" s="26" t="inlineStr">
-        <is>
-          <t>B1007294-</t>
-        </is>
-      </c>
-      <c r="X7" s="26" t="inlineStr">
+      <c r="U7" s="27" t="inlineStr">
+        <is>
+          <t>B1008894-</t>
+        </is>
+      </c>
+      <c r="V7" s="27" t="inlineStr">
+        <is>
+          <t>B1009115-</t>
+        </is>
+      </c>
+      <c r="W7" s="27" t="inlineStr">
+        <is>
+          <t>T2002334-</t>
+        </is>
+      </c>
+      <c r="X7" s="27" t="inlineStr">
         <is>
           <t>B2011225-</t>
         </is>
       </c>
-      <c r="Y7" s="26" t="inlineStr">
-        <is>
-          <t>B2011032-</t>
-        </is>
-      </c>
-      <c r="Z7" s="26" t="inlineStr">
-        <is>
-          <t>B2010623-</t>
-        </is>
-      </c>
-      <c r="AA7" s="26" t="inlineStr">
+      <c r="Y7" s="27" t="inlineStr">
+        <is>
+          <t>T1001244-</t>
+        </is>
+      </c>
+      <c r="Z7" s="7" t="n"/>
+      <c r="AA7" s="27" t="inlineStr">
         <is>
           <t>B2011253-</t>
         </is>
       </c>
-      <c r="AB7" s="26" t="inlineStr">
-        <is>
-          <t>B1005021-</t>
-        </is>
-      </c>
-      <c r="AC7" s="26" t="inlineStr">
+      <c r="AB7" s="27" t="inlineStr">
+        <is>
+          <t>B2011429-</t>
+        </is>
+      </c>
+      <c r="AC7" s="27" t="inlineStr">
         <is>
           <t>B2010665-</t>
         </is>
       </c>
-      <c r="AD7" s="26" t="inlineStr">
-        <is>
-          <t>B2010241-</t>
+      <c r="AD7" s="27" t="inlineStr">
+        <is>
+          <t>B2011433-</t>
         </is>
       </c>
     </row>
@@ -1738,122 +1774,143 @@
     <row r="9">
       <c r="A9" s="23" t="n"/>
       <c r="B9" s="10" t="n"/>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>t2001616-</t>
-        </is>
-      </c>
-      <c r="D9" s="27" t="inlineStr">
-        <is>
-          <t>t2001175-</t>
-        </is>
-      </c>
-      <c r="E9" s="25" t="inlineStr">
-        <is>
-          <t>B2000368-</t>
-        </is>
-      </c>
-      <c r="F9" s="26" t="inlineStr">
+      <c r="C9" s="25" t="inlineStr">
+        <is>
+          <t>t2003386-</t>
+        </is>
+      </c>
+      <c r="D9" s="25" t="inlineStr">
+        <is>
+          <t>B1007455-</t>
+        </is>
+      </c>
+      <c r="E9" s="26" t="inlineStr">
+        <is>
+          <t>t2001736-</t>
+        </is>
+      </c>
+      <c r="F9" s="27" t="inlineStr">
         <is>
           <t>B1009056-</t>
         </is>
       </c>
-      <c r="G9" s="26" t="inlineStr">
-        <is>
-          <t>B2009997-</t>
-        </is>
-      </c>
-      <c r="H9" s="26" t="inlineStr">
+      <c r="G9" s="27" t="inlineStr">
+        <is>
+          <t>X1000130-</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="inlineStr">
         <is>
           <t>b2011168-</t>
         </is>
       </c>
-      <c r="I9" s="26" t="inlineStr">
+      <c r="I9" s="27" t="inlineStr">
         <is>
           <t>B2010739-</t>
         </is>
       </c>
-      <c r="J9" s="26" t="inlineStr">
-        <is>
-          <t>M1000912-</t>
-        </is>
-      </c>
-      <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="n"/>
-      <c r="M9" s="26" t="inlineStr">
+      <c r="J9" s="27" t="inlineStr">
+        <is>
+          <t>B1009092-</t>
+        </is>
+      </c>
+      <c r="K9" s="27" t="inlineStr">
+        <is>
+          <t>b2000135-</t>
+        </is>
+      </c>
+      <c r="L9" s="27" t="inlineStr">
+        <is>
+          <t>B1008171-</t>
+        </is>
+      </c>
+      <c r="M9" s="27" t="inlineStr">
         <is>
           <t>B2000288-</t>
         </is>
       </c>
-      <c r="N9" s="26" t="inlineStr">
-        <is>
-          <t>B2009987-</t>
-        </is>
-      </c>
-      <c r="O9" s="7" t="n"/>
-      <c r="P9" s="7" t="n"/>
-      <c r="Q9" s="26" t="inlineStr">
-        <is>
-          <t>b2000056-</t>
-        </is>
-      </c>
-      <c r="R9" s="26" t="inlineStr">
+      <c r="N9" s="27" t="inlineStr">
+        <is>
+          <t>T1001079-</t>
+        </is>
+      </c>
+      <c r="O9" s="27" t="inlineStr">
+        <is>
+          <t>B1008133-</t>
+        </is>
+      </c>
+      <c r="P9" s="27" t="inlineStr">
+        <is>
+          <t>T1000653-</t>
+        </is>
+      </c>
+      <c r="Q9" s="27" t="inlineStr">
+        <is>
+          <t>B2011513-</t>
+        </is>
+      </c>
+      <c r="R9" s="27" t="inlineStr">
         <is>
           <t>b2000460-</t>
         </is>
       </c>
-      <c r="S9" s="26" t="inlineStr">
+      <c r="S9" s="27" t="inlineStr">
         <is>
           <t>B1008034-</t>
         </is>
       </c>
-      <c r="T9" s="26" t="inlineStr">
+      <c r="T9" s="27" t="inlineStr">
         <is>
           <t>B1008450-</t>
         </is>
       </c>
-      <c r="U9" s="26" t="inlineStr">
-        <is>
-          <t>T2001109-</t>
-        </is>
-      </c>
-      <c r="V9" s="26" t="inlineStr">
-        <is>
-          <t>B1008284-</t>
-        </is>
-      </c>
-      <c r="W9" s="26" t="inlineStr">
+      <c r="U9" s="27" t="inlineStr">
+        <is>
+          <t>B2012210-</t>
+        </is>
+      </c>
+      <c r="V9" s="27" t="inlineStr">
+        <is>
+          <t>T1000744-</t>
+        </is>
+      </c>
+      <c r="W9" s="27" t="inlineStr">
         <is>
           <t>B2010046-</t>
         </is>
       </c>
-      <c r="X9" s="26" t="inlineStr">
+      <c r="X9" s="27" t="inlineStr">
         <is>
           <t>m1015413-</t>
         </is>
       </c>
-      <c r="Y9" s="26" t="inlineStr">
+      <c r="Y9" s="27" t="inlineStr">
         <is>
           <t>B2000989-</t>
         </is>
       </c>
-      <c r="Z9" s="26" t="inlineStr">
-        <is>
-          <t>b2000825-</t>
-        </is>
-      </c>
-      <c r="AA9" s="26" t="inlineStr">
-        <is>
-          <t>T1000249-</t>
-        </is>
-      </c>
-      <c r="AB9" s="26" t="inlineStr">
+      <c r="Z9" s="28" t="inlineStr">
+        <is>
+          <t>T2002843-
+b2000825-</t>
+        </is>
+      </c>
+      <c r="AA9" s="27" t="inlineStr">
+        <is>
+          <t>B2011518-</t>
+        </is>
+      </c>
+      <c r="AB9" s="27" t="inlineStr">
         <is>
           <t>B1008094-</t>
         </is>
       </c>
-      <c r="AC9" s="7" t="n"/>
-      <c r="AD9" s="26" t="inlineStr">
+      <c r="AC9" s="27" t="inlineStr">
+        <is>
+          <t>B2000716-</t>
+        </is>
+      </c>
+      <c r="AD9" s="27" t="inlineStr">
         <is>
           <t>B1006388-</t>
         </is>
@@ -2010,143 +2067,146 @@
     <row r="11">
       <c r="A11" s="23" t="n"/>
       <c r="B11" s="10" t="n"/>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="25" t="inlineStr">
         <is>
           <t>b1008883-</t>
         </is>
       </c>
-      <c r="D11" s="27" t="inlineStr">
+      <c r="D11" s="25" t="inlineStr">
         <is>
           <t>b2010776-</t>
         </is>
       </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>B2010922-
-T2000303-</t>
-        </is>
-      </c>
-      <c r="F11" s="26" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
+        <is>
+          <t>T2000303-</t>
+        </is>
+      </c>
+      <c r="F11" s="27" t="inlineStr">
         <is>
           <t>T2002669-</t>
         </is>
       </c>
-      <c r="G11" s="26" t="inlineStr">
-        <is>
-          <t>B2010705-</t>
-        </is>
-      </c>
-      <c r="H11" s="26" t="inlineStr">
+      <c r="G11" s="27" t="inlineStr">
+        <is>
+          <t>B2010473-</t>
+        </is>
+      </c>
+      <c r="H11" s="27" t="inlineStr">
         <is>
           <t>B2010830-</t>
         </is>
       </c>
-      <c r="I11" s="26" t="inlineStr">
-        <is>
-          <t>B1008443-</t>
-        </is>
-      </c>
-      <c r="J11" s="26" t="inlineStr">
+      <c r="I11" s="27" t="inlineStr">
+        <is>
+          <t>B2010166-</t>
+        </is>
+      </c>
+      <c r="J11" s="27" t="inlineStr">
         <is>
           <t>B2010401-</t>
         </is>
       </c>
-      <c r="K11" s="26" t="inlineStr">
+      <c r="K11" s="27" t="inlineStr">
         <is>
           <t>b2000578-</t>
         </is>
       </c>
-      <c r="L11" s="26" t="inlineStr">
-        <is>
-          <t>B1009240-</t>
-        </is>
-      </c>
-      <c r="M11" s="26" t="inlineStr">
+      <c r="L11" s="27" t="inlineStr">
+        <is>
+          <t>B2000257-</t>
+        </is>
+      </c>
+      <c r="M11" s="27" t="inlineStr">
         <is>
           <t>B1007706-</t>
         </is>
       </c>
-      <c r="N11" s="26" t="inlineStr">
+      <c r="N11" s="27" t="inlineStr">
         <is>
           <t>B2009995-</t>
         </is>
       </c>
-      <c r="O11" s="26" t="inlineStr">
+      <c r="O11" s="27" t="inlineStr">
         <is>
           <t>B2010630-</t>
         </is>
       </c>
-      <c r="P11" s="26" t="inlineStr">
+      <c r="P11" s="27" t="inlineStr">
         <is>
           <t>B2000159-</t>
         </is>
       </c>
-      <c r="Q11" s="26" t="inlineStr">
+      <c r="Q11" s="27" t="inlineStr">
         <is>
           <t>B1007354-</t>
         </is>
       </c>
-      <c r="R11" s="26" t="inlineStr">
+      <c r="R11" s="27" t="inlineStr">
         <is>
           <t>M1015587-</t>
         </is>
       </c>
-      <c r="S11" s="26" t="inlineStr">
+      <c r="S11" s="27" t="inlineStr">
         <is>
           <t>M1009503-</t>
         </is>
       </c>
-      <c r="T11" s="26" t="inlineStr">
+      <c r="T11" s="27" t="inlineStr">
         <is>
           <t>B1007306-</t>
         </is>
       </c>
-      <c r="U11" s="26" t="inlineStr">
+      <c r="U11" s="27" t="inlineStr">
         <is>
           <t>B2010519-</t>
         </is>
       </c>
-      <c r="V11" s="26" t="inlineStr">
+      <c r="V11" s="27" t="inlineStr">
         <is>
           <t>B1008935-</t>
         </is>
       </c>
-      <c r="W11" s="26" t="inlineStr">
+      <c r="W11" s="27" t="inlineStr">
         <is>
           <t>B2000388-</t>
         </is>
       </c>
-      <c r="X11" s="26" t="inlineStr">
-        <is>
-          <t>B2010111-</t>
-        </is>
-      </c>
-      <c r="Y11" s="26" t="inlineStr">
-        <is>
-          <t>B2000260-</t>
-        </is>
-      </c>
-      <c r="Z11" s="26" t="inlineStr">
+      <c r="X11" s="27" t="inlineStr">
+        <is>
+          <t>B1000135-</t>
+        </is>
+      </c>
+      <c r="Y11" s="27" t="inlineStr">
+        <is>
+          <t>T2001051-</t>
+        </is>
+      </c>
+      <c r="Z11" s="27" t="inlineStr">
         <is>
           <t>P1234067-</t>
         </is>
       </c>
-      <c r="AA11" s="26" t="inlineStr">
+      <c r="AA11" s="27" t="inlineStr">
         <is>
           <t>B1007393-</t>
         </is>
       </c>
-      <c r="AB11" s="26" t="inlineStr">
+      <c r="AB11" s="27" t="inlineStr">
         <is>
           <t>B2010866-</t>
         </is>
       </c>
-      <c r="AC11" s="26" t="inlineStr">
+      <c r="AC11" s="27" t="inlineStr">
         <is>
           <t>B2000170-</t>
         </is>
       </c>
-      <c r="AD11" s="7" t="n"/>
+      <c r="AD11" s="27" t="inlineStr">
+        <is>
+          <t>B2012212-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="n"/>
@@ -2304,7 +2364,11 @@
           <t>B2000579-</t>
         </is>
       </c>
-      <c r="D13" s="18" t="n"/>
+      <c r="D13" s="29" t="inlineStr">
+        <is>
+          <t>B1007510-</t>
+        </is>
+      </c>
       <c r="E13" s="29" t="inlineStr">
         <is>
           <t>T1000267-</t>
@@ -2312,27 +2376,27 @@
       </c>
       <c r="F13" s="29" t="inlineStr">
         <is>
-          <t>B2010998-</t>
+          <t>m1010247-</t>
         </is>
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>t2001408-</t>
+          <t>P1231998-</t>
         </is>
       </c>
       <c r="H13" s="29" t="inlineStr">
         <is>
-          <t>B1008872-</t>
+          <t>T2002696-</t>
         </is>
       </c>
       <c r="I13" s="29" t="inlineStr">
         <is>
-          <t>T2002674-</t>
+          <t>T2001687-</t>
         </is>
       </c>
       <c r="J13" s="29" t="inlineStr">
         <is>
-          <t>T2001803-</t>
+          <t>B2011526-</t>
         </is>
       </c>
       <c r="K13" s="29" t="inlineStr">
@@ -2347,17 +2411,17 @@
       </c>
       <c r="M13" s="29" t="inlineStr">
         <is>
-          <t>b2000365-</t>
+          <t>B2011511-</t>
         </is>
       </c>
       <c r="N13" s="29" t="inlineStr">
         <is>
-          <t>B1007801-</t>
+          <t>B1004353-</t>
         </is>
       </c>
       <c r="O13" s="29" t="inlineStr">
         <is>
-          <t>t1000524-</t>
+          <t>B1004717-</t>
         </is>
       </c>
       <c r="P13" s="29" t="inlineStr">
@@ -2367,7 +2431,7 @@
       </c>
       <c r="Q13" s="29" t="inlineStr">
         <is>
-          <t>B2010508-</t>
+          <t>T2003384-</t>
         </is>
       </c>
       <c r="R13" s="29" t="inlineStr">
@@ -2385,20 +2449,24 @@
           <t>B1008991-</t>
         </is>
       </c>
-      <c r="U13" s="18" t="n"/>
+      <c r="U13" s="29" t="inlineStr">
+        <is>
+          <t>B1008564-</t>
+        </is>
+      </c>
       <c r="V13" s="29" t="inlineStr">
         <is>
-          <t>t1000698-</t>
+          <t>T1000872-</t>
         </is>
       </c>
       <c r="W13" s="29" t="inlineStr">
         <is>
-          <t>B1008753-</t>
+          <t>T2003385-</t>
         </is>
       </c>
       <c r="X13" s="29" t="inlineStr">
         <is>
-          <t>T1001054-</t>
+          <t>B2011418-</t>
         </is>
       </c>
       <c r="Y13" s="29" t="inlineStr">
@@ -2413,12 +2481,12 @@
       </c>
       <c r="AA13" s="29" t="inlineStr">
         <is>
-          <t>T2002673-</t>
+          <t>B2011177-</t>
         </is>
       </c>
       <c r="AB13" s="29" t="inlineStr">
         <is>
-          <t>T2001507-</t>
+          <t>b1004215-</t>
         </is>
       </c>
       <c r="AC13" s="29" t="inlineStr">
@@ -2428,7 +2496,7 @@
       </c>
       <c r="AD13" s="29" t="inlineStr">
         <is>
-          <t>B2010934-</t>
+          <t>B2010708-</t>
         </is>
       </c>
     </row>
@@ -2583,134 +2651,138 @@
     <row r="15" ht="16.25" customHeight="1">
       <c r="A15" s="24" t="n"/>
       <c r="B15" s="9" t="n"/>
-      <c r="C15" s="27" t="inlineStr">
+      <c r="C15" s="25" t="inlineStr">
         <is>
           <t>B1008196-</t>
         </is>
       </c>
-      <c r="D15" s="27" t="inlineStr">
+      <c r="D15" s="25" t="inlineStr">
         <is>
           <t>B2010094-</t>
         </is>
       </c>
-      <c r="E15" s="27" t="inlineStr">
+      <c r="E15" s="25" t="inlineStr">
         <is>
           <t>T1000730-</t>
         </is>
       </c>
-      <c r="F15" s="27" t="inlineStr">
-        <is>
-          <t>B1005560-</t>
-        </is>
-      </c>
-      <c r="G15" s="27" t="inlineStr">
-        <is>
-          <t>T2000180-</t>
-        </is>
-      </c>
-      <c r="H15" s="27" t="inlineStr">
+      <c r="F15" s="25" t="inlineStr">
+        <is>
+          <t>B1004712-</t>
+        </is>
+      </c>
+      <c r="G15" s="25" t="inlineStr">
+        <is>
+          <t>X1000240-</t>
+        </is>
+      </c>
+      <c r="H15" s="25" t="inlineStr">
         <is>
           <t>T2001010-</t>
         </is>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="25" t="inlineStr">
         <is>
           <t>B1009077-</t>
         </is>
       </c>
-      <c r="J15" s="27" t="inlineStr">
+      <c r="J15" s="25" t="inlineStr">
         <is>
           <t>b2000822-</t>
         </is>
       </c>
-      <c r="K15" s="27" t="inlineStr">
+      <c r="K15" s="25" t="inlineStr">
         <is>
           <t>B1007764-</t>
         </is>
       </c>
-      <c r="L15" s="27" t="inlineStr">
+      <c r="L15" s="25" t="inlineStr">
         <is>
           <t>B2000920-</t>
         </is>
       </c>
-      <c r="M15" s="27" t="inlineStr">
+      <c r="M15" s="25" t="inlineStr">
         <is>
           <t>b2010223-</t>
         </is>
       </c>
-      <c r="N15" s="27" t="inlineStr">
+      <c r="N15" s="25" t="inlineStr">
         <is>
           <t>B1005278-</t>
         </is>
       </c>
-      <c r="O15" s="27" t="inlineStr">
+      <c r="O15" s="25" t="inlineStr">
         <is>
           <t>B1005645-</t>
         </is>
       </c>
-      <c r="P15" s="27" t="inlineStr">
+      <c r="P15" s="25" t="inlineStr">
         <is>
           <t>B1004791-</t>
         </is>
       </c>
-      <c r="Q15" s="27" t="inlineStr">
+      <c r="Q15" s="25" t="inlineStr">
         <is>
           <t>B2010906-</t>
         </is>
       </c>
-      <c r="R15" s="27" t="inlineStr">
+      <c r="R15" s="25" t="inlineStr">
         <is>
           <t>M1013460-</t>
         </is>
       </c>
-      <c r="S15" s="27" t="inlineStr">
-        <is>
-          <t>B1008220-</t>
-        </is>
-      </c>
-      <c r="T15" s="3" t="n"/>
-      <c r="U15" s="27" t="inlineStr">
-        <is>
-          <t>B1004941-</t>
-        </is>
-      </c>
-      <c r="V15" s="27" t="inlineStr">
+      <c r="S15" s="25" t="inlineStr">
+        <is>
+          <t>B2000968-</t>
+        </is>
+      </c>
+      <c r="T15" s="25" t="inlineStr">
+        <is>
+          <t>B2010219-</t>
+        </is>
+      </c>
+      <c r="U15" s="25" t="inlineStr">
+        <is>
+          <t>t2001695-</t>
+        </is>
+      </c>
+      <c r="V15" s="25" t="inlineStr">
         <is>
           <t>B2010779-</t>
         </is>
       </c>
-      <c r="W15" s="27" t="inlineStr">
+      <c r="W15" s="25" t="inlineStr">
         <is>
           <t>T2002690-</t>
         </is>
       </c>
-      <c r="X15" s="27" t="inlineStr">
+      <c r="X15" s="25" t="inlineStr">
         <is>
           <t>X1000003-</t>
         </is>
       </c>
-      <c r="Y15" s="27" t="inlineStr">
-        <is>
-          <t>B1005961-</t>
-        </is>
-      </c>
-      <c r="Z15" s="27" t="inlineStr">
+      <c r="Y15" s="25" t="inlineStr">
+        <is>
+          <t>B2012208-</t>
+        </is>
+      </c>
+      <c r="Z15" s="25" t="inlineStr">
         <is>
           <t>B1000167-</t>
         </is>
       </c>
-      <c r="AA15" s="27" t="inlineStr">
+      <c r="AA15" s="25" t="inlineStr">
         <is>
           <t>B1004305-</t>
         </is>
       </c>
       <c r="AB15" s="3" t="n"/>
-      <c r="AC15" s="27" t="inlineStr">
+      <c r="AC15" s="25" t="inlineStr">
         <is>
           <t>B2011054-</t>
         </is>
       </c>
-      <c r="AD15" s="27" t="inlineStr">
+      <c r="AD15" s="25" t="inlineStr">
         <is>
           <t>b1005957-</t>
         </is>
@@ -3068,7 +3140,7 @@
       </c>
       <c r="V18" s="11" t="inlineStr">
         <is>
-          <t>07107G</t>
+          <t>07101G</t>
         </is>
       </c>
       <c r="W18" s="11" t="inlineStr">
@@ -3135,15 +3207,15 @@
           <t>B2010427-</t>
         </is>
       </c>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="30" t="inlineStr">
-        <is>
-          <t>B1004555-</t>
-        </is>
-      </c>
+      <c r="G19" s="30" t="inlineStr">
+        <is>
+          <t>B2012263-</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="n"/>
       <c r="I19" s="30" t="inlineStr">
         <is>
-          <t>B2000383-</t>
+          <t>B2012269-</t>
         </is>
       </c>
       <c r="J19" s="30" t="inlineStr">
@@ -3153,10 +3225,14 @@
       </c>
       <c r="K19" s="30" t="inlineStr">
         <is>
-          <t>b1007504-</t>
-        </is>
-      </c>
-      <c r="L19" s="11" t="n"/>
+          <t>B2012230-</t>
+        </is>
+      </c>
+      <c r="L19" s="30" t="inlineStr">
+        <is>
+          <t>B2012265-</t>
+        </is>
+      </c>
       <c r="M19" s="30" t="inlineStr">
         <is>
           <t>T2001813-</t>
@@ -3189,7 +3265,7 @@
       </c>
       <c r="S19" s="30" t="inlineStr">
         <is>
-          <t>B1006700-</t>
+          <t>B2012258-</t>
         </is>
       </c>
       <c r="T19" s="30" t="inlineStr">
@@ -3202,7 +3278,11 @@
           <t>B1000594-</t>
         </is>
       </c>
-      <c r="V19" s="11" t="n"/>
+      <c r="V19" s="30" t="inlineStr">
+        <is>
+          <t>B2012267-</t>
+        </is>
+      </c>
       <c r="W19" s="30" t="inlineStr">
         <is>
           <t>B2011156-</t>
@@ -3220,7 +3300,7 @@
       </c>
       <c r="Z19" s="30" t="inlineStr">
         <is>
-          <t>B2011368-</t>
+          <t>B2010827-</t>
         </is>
       </c>
       <c r="AA19" s="30" t="inlineStr">
@@ -3348,7 +3428,7 @@
       </c>
       <c r="V20" s="11" t="inlineStr">
         <is>
-          <t>07107F</t>
+          <t>07101F</t>
         </is>
       </c>
       <c r="W20" s="11" t="inlineStr">
@@ -3400,7 +3480,11 @@
           <t>B1006400-</t>
         </is>
       </c>
-      <c r="D21" s="11" t="n"/>
+      <c r="D21" s="30" t="inlineStr">
+        <is>
+          <t>b1006136-</t>
+        </is>
+      </c>
       <c r="E21" s="30" t="inlineStr">
         <is>
           <t>M1016580-</t>
@@ -3438,7 +3522,7 @@
       </c>
       <c r="L21" s="30" t="inlineStr">
         <is>
-          <t>B2010995-</t>
+          <t>B1005838-</t>
         </is>
       </c>
       <c r="M21" s="30" t="inlineStr">
@@ -3448,7 +3532,7 @@
       </c>
       <c r="N21" s="30" t="inlineStr">
         <is>
-          <t>B1000206-</t>
+          <t>B1000189-</t>
         </is>
       </c>
       <c r="O21" s="30" t="inlineStr">
@@ -3458,7 +3542,7 @@
       </c>
       <c r="P21" s="30" t="inlineStr">
         <is>
-          <t>b1006252-</t>
+          <t>T1000852-</t>
         </is>
       </c>
       <c r="Q21" s="30" t="inlineStr">
@@ -3473,7 +3557,7 @@
       </c>
       <c r="S21" s="30" t="inlineStr">
         <is>
-          <t>b1004833-</t>
+          <t>X1000358-</t>
         </is>
       </c>
       <c r="T21" s="30" t="inlineStr">
@@ -3486,7 +3570,11 @@
           <t>B2010807-</t>
         </is>
       </c>
-      <c r="V21" s="11" t="n"/>
+      <c r="V21" s="30" t="inlineStr">
+        <is>
+          <t>B1006006-</t>
+        </is>
+      </c>
       <c r="W21" s="30" t="inlineStr">
         <is>
           <t>B2011386-</t>
@@ -3632,7 +3720,7 @@
       </c>
       <c r="V22" s="11" t="inlineStr">
         <is>
-          <t>07107E</t>
+          <t>07101E</t>
         </is>
       </c>
       <c r="W22" s="11" t="inlineStr">
@@ -3681,7 +3769,7 @@
       <c r="B23" s="22" t="n"/>
       <c r="C23" s="30" t="inlineStr">
         <is>
-          <t>B2000008-</t>
+          <t>b2010314-</t>
         </is>
       </c>
       <c r="D23" s="30" t="inlineStr">
@@ -3701,7 +3789,7 @@
       </c>
       <c r="G23" s="30" t="inlineStr">
         <is>
-          <t>T1000742-</t>
+          <t>T1000736-</t>
         </is>
       </c>
       <c r="H23" s="30" t="inlineStr">
@@ -3721,7 +3809,7 @@
       </c>
       <c r="K23" s="30" t="inlineStr">
         <is>
-          <t>B1005018-</t>
+          <t>NC100147-</t>
         </is>
       </c>
       <c r="L23" s="30" t="inlineStr">
@@ -3746,7 +3834,7 @@
       </c>
       <c r="P23" s="30" t="inlineStr">
         <is>
-          <t>B1007455-</t>
+          <t>B1007313-</t>
         </is>
       </c>
       <c r="Q23" s="30" t="inlineStr">
@@ -3761,12 +3849,12 @@
       </c>
       <c r="S23" s="30" t="inlineStr">
         <is>
-          <t>P1229846-</t>
+          <t>B2010896-</t>
         </is>
       </c>
       <c r="T23" s="30" t="inlineStr">
         <is>
-          <t>B1008752-</t>
+          <t>B2010633-</t>
         </is>
       </c>
       <c r="U23" s="30" t="inlineStr">
@@ -3774,7 +3862,11 @@
           <t>B2011120-</t>
         </is>
       </c>
-      <c r="V23" s="11" t="n"/>
+      <c r="V23" s="30" t="inlineStr">
+        <is>
+          <t>t2001072-</t>
+        </is>
+      </c>
       <c r="W23" s="30" t="inlineStr">
         <is>
           <t>B2010794-</t>
@@ -3792,7 +3884,7 @@
       </c>
       <c r="Z23" s="30" t="inlineStr">
         <is>
-          <t>b1008776-</t>
+          <t>T2001943-</t>
         </is>
       </c>
       <c r="AA23" s="30" t="inlineStr">
@@ -3802,17 +3894,17 @@
       </c>
       <c r="AB23" s="30" t="inlineStr">
         <is>
-          <t>b1005267-</t>
+          <t>T2001596-</t>
         </is>
       </c>
       <c r="AC23" s="30" t="inlineStr">
         <is>
-          <t>B1004215-</t>
+          <t>T2001707-</t>
         </is>
       </c>
       <c r="AD23" s="30" t="inlineStr">
         <is>
-          <t>T1000768-</t>
+          <t>B2011428-</t>
         </is>
       </c>
     </row>
@@ -3920,7 +4012,7 @@
       </c>
       <c r="V24" s="11" t="inlineStr">
         <is>
-          <t>07107D</t>
+          <t>07101D</t>
         </is>
       </c>
       <c r="W24" s="11" t="inlineStr">
@@ -3982,7 +4074,11 @@
           <t>b1008898-</t>
         </is>
       </c>
-      <c r="F25" s="11" t="n"/>
+      <c r="F25" s="30" t="inlineStr">
+        <is>
+          <t>t2001174-</t>
+        </is>
+      </c>
       <c r="G25" s="30" t="inlineStr">
         <is>
           <t>B2000823-</t>
@@ -3990,7 +4086,7 @@
       </c>
       <c r="H25" s="30" t="inlineStr">
         <is>
-          <t>b1004780-</t>
+          <t>T2001405-</t>
         </is>
       </c>
       <c r="I25" s="30" t="inlineStr">
@@ -4005,7 +4101,7 @@
       </c>
       <c r="K25" s="30" t="inlineStr">
         <is>
-          <t>B2010021-</t>
+          <t>B2010443-</t>
         </is>
       </c>
       <c r="L25" s="30" t="inlineStr">
@@ -4015,7 +4111,7 @@
       </c>
       <c r="M25" s="30" t="inlineStr">
         <is>
-          <t>B2010517-</t>
+          <t>T1000742-</t>
         </is>
       </c>
       <c r="N25" s="30" t="inlineStr">
@@ -4050,15 +4146,19 @@
       </c>
       <c r="T25" s="30" t="inlineStr">
         <is>
-          <t>P1098195-</t>
+          <t>B2010172-</t>
         </is>
       </c>
       <c r="U25" s="30" t="inlineStr">
         <is>
-          <t>B2011026-</t>
-        </is>
-      </c>
-      <c r="V25" s="11" t="n"/>
+          <t>B2012224-</t>
+        </is>
+      </c>
+      <c r="V25" s="30" t="inlineStr">
+        <is>
+          <t>B2012260-</t>
+        </is>
+      </c>
       <c r="W25" s="30" t="inlineStr">
         <is>
           <t>B2010441-</t>
@@ -4076,7 +4176,7 @@
       </c>
       <c r="Z25" s="30" t="inlineStr">
         <is>
-          <t>B1007193-</t>
+          <t>b1006959-</t>
         </is>
       </c>
       <c r="AA25" s="30" t="inlineStr">
@@ -4086,12 +4186,12 @@
       </c>
       <c r="AB25" s="30" t="inlineStr">
         <is>
-          <t>B2000701-</t>
+          <t>t2002720-</t>
         </is>
       </c>
       <c r="AC25" s="30" t="inlineStr">
         <is>
-          <t>B1009119-</t>
+          <t>B2012261-</t>
         </is>
       </c>
       <c r="AD25" s="30" t="inlineStr">
@@ -4204,7 +4304,7 @@
       </c>
       <c r="V26" s="11" t="inlineStr">
         <is>
-          <t>07107C</t>
+          <t>07101C</t>
         </is>
       </c>
       <c r="W26" s="11" t="inlineStr">
@@ -4253,7 +4353,7 @@
       <c r="B27" s="22" t="n"/>
       <c r="C27" s="30" t="inlineStr">
         <is>
-          <t>B1008539-</t>
+          <t>B2010578-</t>
         </is>
       </c>
       <c r="D27" s="30" t="inlineStr">
@@ -4261,19 +4361,15 @@
           <t>t2001125-</t>
         </is>
       </c>
-      <c r="E27" s="30" t="inlineStr">
-        <is>
-          <t>B2010978-</t>
-        </is>
-      </c>
+      <c r="E27" s="11" t="n"/>
       <c r="F27" s="30" t="inlineStr">
         <is>
-          <t>T2002679-</t>
+          <t>B2011516-</t>
         </is>
       </c>
       <c r="G27" s="30" t="inlineStr">
         <is>
-          <t>B1008506-</t>
+          <t>B2012272-</t>
         </is>
       </c>
       <c r="H27" s="30" t="inlineStr">
@@ -4286,10 +4382,14 @@
           <t>B1007059-</t>
         </is>
       </c>
-      <c r="J27" s="11" t="n"/>
+      <c r="J27" s="30" t="inlineStr">
+        <is>
+          <t>T1001310-</t>
+        </is>
+      </c>
       <c r="K27" s="30" t="inlineStr">
         <is>
-          <t>B1008977-</t>
+          <t>B1007156-</t>
         </is>
       </c>
       <c r="L27" s="30" t="inlineStr">
@@ -4299,7 +4399,7 @@
       </c>
       <c r="M27" s="30" t="inlineStr">
         <is>
-          <t>B2000719-</t>
+          <t>b1004307-</t>
         </is>
       </c>
       <c r="N27" s="30" t="inlineStr">
@@ -4307,9 +4407,10 @@
           <t>B2000342-</t>
         </is>
       </c>
-      <c r="O27" s="30" t="inlineStr">
-        <is>
-          <t>B2010208-</t>
+      <c r="O27" s="31" t="inlineStr">
+        <is>
+          <t>T1001022-
+T2001327-</t>
         </is>
       </c>
       <c r="P27" s="30" t="inlineStr">
@@ -4329,12 +4430,12 @@
       </c>
       <c r="S27" s="30" t="inlineStr">
         <is>
-          <t>B1004437-</t>
+          <t>B2012257-</t>
         </is>
       </c>
       <c r="T27" s="30" t="inlineStr">
         <is>
-          <t>B1007884-</t>
+          <t>B2000862-</t>
         </is>
       </c>
       <c r="U27" s="30" t="inlineStr">
@@ -4342,15 +4443,19 @@
           <t>B2010453-</t>
         </is>
       </c>
-      <c r="V27" s="11" t="n"/>
+      <c r="V27" s="30" t="inlineStr">
+        <is>
+          <t>B2011377-</t>
+        </is>
+      </c>
       <c r="W27" s="30" t="inlineStr">
         <is>
-          <t>B1007529-</t>
+          <t>T1001088-</t>
         </is>
       </c>
       <c r="X27" s="30" t="inlineStr">
         <is>
-          <t>P1226312-</t>
+          <t>B1007752-</t>
         </is>
       </c>
       <c r="Y27" s="30" t="inlineStr">
@@ -4360,12 +4465,12 @@
       </c>
       <c r="Z27" s="30" t="inlineStr">
         <is>
-          <t>t2001327-</t>
+          <t>B1007950-</t>
         </is>
       </c>
       <c r="AA27" s="30" t="inlineStr">
         <is>
-          <t>b1008338-</t>
+          <t>B2010425-</t>
         </is>
       </c>
       <c r="AB27" s="30" t="inlineStr">
@@ -4378,7 +4483,11 @@
           <t>B1008491-</t>
         </is>
       </c>
-      <c r="AD27" s="11" t="n"/>
+      <c r="AD27" s="30" t="inlineStr">
+        <is>
+          <t>T2003393-</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="n"/>
@@ -4484,7 +4593,7 @@
       </c>
       <c r="V28" s="11" t="inlineStr">
         <is>
-          <t>07107B</t>
+          <t>07101B</t>
         </is>
       </c>
       <c r="W28" s="11" t="inlineStr">
@@ -4538,7 +4647,7 @@
       </c>
       <c r="D29" s="29" t="inlineStr">
         <is>
-          <t>B2010151-</t>
+          <t>B2010327-</t>
         </is>
       </c>
       <c r="E29" s="29" t="inlineStr">
@@ -4553,7 +4662,7 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t>b1008458-</t>
+          <t>B1004434-</t>
         </is>
       </c>
       <c r="H29" s="29" t="inlineStr">
@@ -4568,17 +4677,17 @@
       </c>
       <c r="J29" s="29" t="inlineStr">
         <is>
-          <t>T2001351-</t>
+          <t>B2011512-</t>
         </is>
       </c>
       <c r="K29" s="29" t="inlineStr">
         <is>
-          <t>t2001919-</t>
+          <t>B2011501-</t>
         </is>
       </c>
       <c r="L29" s="29" t="inlineStr">
         <is>
-          <t>T1000852-</t>
+          <t>T1000788-</t>
         </is>
       </c>
       <c r="M29" s="29" t="inlineStr">
@@ -4598,7 +4707,7 @@
       </c>
       <c r="P29" s="29" t="inlineStr">
         <is>
-          <t>T2001154-</t>
+          <t>b2009949-</t>
         </is>
       </c>
       <c r="Q29" s="29" t="inlineStr">
@@ -4613,34 +4722,42 @@
       </c>
       <c r="S29" s="29" t="inlineStr">
         <is>
-          <t>B2000257-</t>
+          <t>B1006839-</t>
         </is>
       </c>
       <c r="T29" s="29" t="inlineStr">
         <is>
-          <t>B1008057-</t>
+          <t>P1098195-</t>
         </is>
       </c>
       <c r="U29" s="29" t="inlineStr">
         <is>
-          <t>T1000310-</t>
-        </is>
-      </c>
-      <c r="V29" s="20" t="n"/>
+          <t>T1000958-</t>
+        </is>
+      </c>
+      <c r="V29" s="29" t="inlineStr">
+        <is>
+          <t>B1009162-</t>
+        </is>
+      </c>
       <c r="W29" s="29" t="inlineStr">
         <is>
           <t>B2000336-</t>
         </is>
       </c>
-      <c r="X29" s="20" t="n"/>
+      <c r="X29" s="29" t="inlineStr">
+        <is>
+          <t>b2000985-</t>
+        </is>
+      </c>
       <c r="Y29" s="29" t="inlineStr">
         <is>
-          <t>b1009067-</t>
+          <t>B1008486-</t>
         </is>
       </c>
       <c r="Z29" s="29" t="inlineStr">
         <is>
-          <t>B1000644-</t>
+          <t>B2011416-</t>
         </is>
       </c>
       <c r="AA29" s="29" t="inlineStr">
@@ -4655,10 +4772,14 @@
       </c>
       <c r="AC29" s="29" t="inlineStr">
         <is>
-          <t>B2011067-</t>
-        </is>
-      </c>
-      <c r="AD29" s="20" t="n"/>
+          <t>T2000237-</t>
+        </is>
+      </c>
+      <c r="AD29" s="29" t="inlineStr">
+        <is>
+          <t>B1004758-</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="n"/>
@@ -4764,7 +4885,7 @@
       </c>
       <c r="V30" s="21" t="inlineStr">
         <is>
-          <t>07107A</t>
+          <t>07101A</t>
         </is>
       </c>
       <c r="W30" s="21" t="inlineStr">
@@ -4811,135 +4932,142 @@
     <row r="31" ht="21.5" customHeight="1">
       <c r="A31" s="24" t="n"/>
       <c r="B31" s="22" t="n"/>
-      <c r="C31" s="27" t="inlineStr">
-        <is>
-          <t>t2000241-</t>
-        </is>
-      </c>
-      <c r="D31" s="27" t="inlineStr">
+      <c r="C31" s="25" t="inlineStr">
+        <is>
+          <t>T2001821-</t>
+        </is>
+      </c>
+      <c r="D31" s="25" t="inlineStr">
         <is>
           <t>B1005032-</t>
         </is>
       </c>
-      <c r="E31" s="5" t="n"/>
-      <c r="F31" s="31" t="inlineStr">
-        <is>
-          <t>B1005936-
-t2001174-</t>
-        </is>
-      </c>
-      <c r="G31" s="27" t="inlineStr">
+      <c r="E31" s="25" t="inlineStr">
+        <is>
+          <t>B1004202-</t>
+        </is>
+      </c>
+      <c r="F31" s="25" t="inlineStr">
+        <is>
+          <t>B1005936-</t>
+        </is>
+      </c>
+      <c r="G31" s="25" t="inlineStr">
         <is>
           <t>B1008724-</t>
         </is>
       </c>
-      <c r="H31" s="27" t="inlineStr">
+      <c r="H31" s="25" t="inlineStr">
         <is>
           <t>M1017638-</t>
         </is>
       </c>
-      <c r="I31" s="27" t="inlineStr">
-        <is>
-          <t>B1008825-</t>
-        </is>
-      </c>
-      <c r="J31" s="27" t="inlineStr">
+      <c r="I31" s="25" t="inlineStr">
+        <is>
+          <t>T1001035-</t>
+        </is>
+      </c>
+      <c r="J31" s="25" t="inlineStr">
         <is>
           <t>B2011160-</t>
         </is>
       </c>
-      <c r="K31" s="27" t="inlineStr">
+      <c r="K31" s="25" t="inlineStr">
         <is>
           <t>B1008042-</t>
         </is>
       </c>
-      <c r="L31" s="27" t="inlineStr">
-        <is>
-          <t>t2000240-</t>
-        </is>
-      </c>
-      <c r="M31" s="27" t="inlineStr">
+      <c r="L31" s="25" t="inlineStr">
+        <is>
+          <t>b1005884-</t>
+        </is>
+      </c>
+      <c r="M31" s="25" t="inlineStr">
         <is>
           <t>M1001730-</t>
         </is>
       </c>
-      <c r="N31" s="27" t="inlineStr">
+      <c r="N31" s="25" t="inlineStr">
         <is>
           <t>P1227604-</t>
         </is>
       </c>
-      <c r="O31" s="27" t="inlineStr">
-        <is>
-          <t>P1234134-</t>
-        </is>
-      </c>
-      <c r="P31" s="27" t="inlineStr">
-        <is>
-          <t>p1225170-</t>
-        </is>
-      </c>
-      <c r="Q31" s="27" t="inlineStr">
+      <c r="O31" s="25" t="inlineStr">
+        <is>
+          <t>U1000146-</t>
+        </is>
+      </c>
+      <c r="P31" s="25" t="inlineStr">
+        <is>
+          <t>B1008939-</t>
+        </is>
+      </c>
+      <c r="Q31" s="25" t="inlineStr">
         <is>
           <t>T1000612-</t>
         </is>
       </c>
-      <c r="R31" s="27" t="inlineStr">
+      <c r="R31" s="25" t="inlineStr">
         <is>
           <t>B2000706-</t>
         </is>
       </c>
-      <c r="S31" s="27" t="inlineStr">
+      <c r="S31" s="25" t="inlineStr">
         <is>
           <t>T1000265-</t>
         </is>
       </c>
-      <c r="T31" s="27" t="inlineStr">
+      <c r="T31" s="25" t="inlineStr">
         <is>
           <t>m1015511-</t>
         </is>
       </c>
-      <c r="U31" s="27" t="inlineStr">
+      <c r="U31" s="25" t="inlineStr">
         <is>
           <t>b2000345-</t>
         </is>
       </c>
-      <c r="V31" s="3" t="n"/>
-      <c r="W31" s="27" t="inlineStr">
-        <is>
-          <t>B2010850-</t>
-        </is>
-      </c>
-      <c r="X31" s="27" t="inlineStr">
+      <c r="V31" s="25" t="inlineStr">
+        <is>
+          <t>B2010481-</t>
+        </is>
+      </c>
+      <c r="W31" s="25" t="inlineStr">
+        <is>
+          <t>x1000179-</t>
+        </is>
+      </c>
+      <c r="X31" s="25" t="inlineStr">
         <is>
           <t>B1005458-</t>
         </is>
       </c>
-      <c r="Y31" s="27" t="inlineStr">
+      <c r="Y31" s="25" t="inlineStr">
         <is>
           <t>B2010421-</t>
         </is>
       </c>
-      <c r="Z31" s="27" t="inlineStr">
+      <c r="Z31" s="25" t="inlineStr">
         <is>
           <t>B1001213-</t>
         </is>
       </c>
-      <c r="AA31" s="27" t="inlineStr">
+      <c r="AA31" s="25" t="inlineStr">
         <is>
           <t>B1008884-</t>
         </is>
       </c>
-      <c r="AB31" s="27" t="inlineStr">
+      <c r="AB31" s="25" t="inlineStr">
         <is>
           <t>B1008418-</t>
         </is>
       </c>
-      <c r="AC31" s="27" t="inlineStr">
-        <is>
-          <t>B2010146-</t>
-        </is>
-      </c>
-      <c r="AD31" s="27" t="inlineStr">
+      <c r="AC31" s="25" t="inlineStr">
+        <is>
+          <t>B1005043-</t>
+        </is>
+      </c>
+      <c r="AD31" s="25" t="inlineStr">
         <is>
           <t>P1226778-</t>
         </is>
